--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769E484-899E-4743-B4CD-A173415A6628}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FD9A8-8E5F-4561-B840-08761D8E1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="validateCreateCustomerAPIWithVD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>testing@yahoo.co.in</t>
   </si>
@@ -86,6 +87,24 @@
   </si>
   <si>
     <t>Tech Lead</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>sac@gmail.com</t>
+  </si>
+  <si>
+    <t>sachin is a customer</t>
+  </si>
+  <si>
+    <t>n@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen is a customer</t>
   </si>
 </sst>
 </file>
@@ -147,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -156,6 +175,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -563,4 +588,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97922C9B-6BCC-4799-9693-6A03EFF0842E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="31.2" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="28.8">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{03B0798F-6428-462B-BB63-A075735FA3EE}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{328EEF2F-C32D-4210-994D-380C6801CC2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FD9A8-8E5F-4561-B840-08761D8E1388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834E3F67-BEAB-41FA-9174-004BB2344C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="validateCreateCustomerAPIWithVD" sheetId="2" r:id="rId2"/>
+    <sheet name="TestDataSheet (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="TestDataSheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="TestDataSheet" sheetId="1" r:id="rId3"/>
+    <sheet name="validateCreateCustomerAPIWithVD" sheetId="2" r:id="rId4"/>
+    <sheet name="fetchCustomer" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>testing@yahoo.co.in</t>
   </si>
@@ -105,6 +108,33 @@
   </si>
   <si>
     <t>naveen is a customer</t>
+  </si>
+  <si>
+    <t>endPoint</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>methodType</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>sactest@gmail.com</t>
+  </si>
+  <si>
+    <t>Test user is creating a customer</t>
+  </si>
+  <si>
+    <t>sac.test@gmail.com</t>
+  </si>
+  <si>
+    <t>Test 1 user is creating a customer</t>
+  </si>
+  <si>
+    <t>email:sactest@gmail.com,description:Test user is creating a customer</t>
   </si>
 </sst>
 </file>
@@ -461,11 +491,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6775F21-653E-446B-B1D2-BA4124E457D1}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.6" customHeight="1">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21.6" customHeight="1">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B1A79B-9DF6-49F4-82E5-B08E3AFB7832}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -583,18 +751,135 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="testing@yahoo.co.in" xr:uid="{79B75267-EB44-435D-A956-D787A1C774A1}"/>
+    <hyperlink ref="A3" r:id="rId1" display="testing@yahoo.co.in" xr:uid="{3EE785EB-9234-46E8-ACA8-90A038931A75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.6" customHeight="1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97922C9B-6BCC-4799-9693-6A03EFF0842E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -638,4 +923,46 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778F2AC4-4CD8-43F8-AC61-D505110DC4BB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>